--- a/excelcloud/excels/e.xlsx
+++ b/excelcloud/excels/e.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="16140" windowHeight="8076" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="16128" windowHeight="8076" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelCloud" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="96">
   <si>
     <t>SIZE</t>
   </si>
@@ -249,12 +249,6 @@
     <t>Standard_CentOS_7.3_latest</t>
   </si>
   <si>
-    <t>SERVERLESS</t>
-  </si>
-  <si>
-    <t>// HERE  the lambda function code</t>
-  </si>
-  <si>
     <t xml:space="preserve"># here the  cloud init code </t>
   </si>
   <si>
@@ -282,12 +276,6 @@
     <t>Microservices - node</t>
   </si>
   <si>
-    <t>webapp_aws_serverless</t>
-  </si>
-  <si>
-    <t>webapp_aws_container</t>
-  </si>
-  <si>
     <t>backend_dev1</t>
   </si>
   <si>
@@ -297,9 +285,6 @@
     <t>#backendteam3</t>
   </si>
   <si>
-    <t>backend_devdb</t>
-  </si>
-  <si>
     <t>mysecuritygroup</t>
   </si>
   <si>
@@ -339,9 +324,6 @@
     <t>27017</t>
   </si>
   <si>
-    <t>80,8080</t>
-  </si>
-  <si>
     <t>PORTS</t>
   </si>
   <si>
@@ -352,6 +334,21 @@
   </si>
   <si>
     <t>!MANDATORY!</t>
+  </si>
+  <si>
+    <t>#backend_devdb2</t>
+  </si>
+  <si>
+    <t>22, 443</t>
+  </si>
+  <si>
+    <t>80, 8080</t>
+  </si>
+  <si>
+    <t>backendteam3</t>
+  </si>
+  <si>
+    <t>General - Python</t>
   </si>
 </sst>
 </file>
@@ -863,7 +860,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,13 +907,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
@@ -924,13 +921,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
@@ -938,10 +935,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -952,10 +949,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -966,10 +963,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -980,10 +977,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -993,17 +990,29 @@
       <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
@@ -1119,7 +1128,7 @@
           <x14:formula1>
             <xm:f>Templates!$A$3:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B8</xm:sqref>
+          <xm:sqref>B3:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1168,7 +1177,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1179,7 +1188,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1190,7 +1199,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1252,7 +1261,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1263,7 +1272,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1320,7 +1329,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A8" sqref="A8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1369,7 +1378,7 @@
         <v>53</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>5</v>
@@ -1386,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>33</v>
@@ -1398,10 +1407,10 @@
         <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -1427,21 +1436,21 @@
         <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>33</v>
@@ -1453,83 +1462,79 @@
         <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
+      <c r="C6" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1732,7 +1737,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1755,76 +1760,76 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="10">
-        <v>22.443000000000001</v>
+        <v>77</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E6" s="12"/>
     </row>
